--- a/Table 1.xlsx
+++ b/Table 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevindiazroque/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DADDC10-616F-4646-8787-664EEBE2635D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690E2A3F-B11F-3C45-9C2E-C4C0879C26EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{96523133-0A49-E645-AD61-68B894186CA7}"/>
+    <workbookView xWindow="1060" yWindow="500" windowWidth="32540" windowHeight="20500" xr2:uid="{96523133-0A49-E645-AD61-68B894186CA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>year</t>
   </si>
@@ -87,14 +87,17 @@
   <si>
     <t>Employed capital per manhour ($)</t>
   </si>
+  <si>
+    <t>Column1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -132,13 +135,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -149,6 +156,24 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D942BA1E-9661-4D4C-BEA5-8BDDB8FAE6A8}" name="Table1" displayName="Table1" ref="A2:I44" totalsRowShown="0">
+  <autoFilter ref="A2:I44" xr:uid="{D942BA1E-9661-4D4C-BEA5-8BDDB8FAE6A8}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{715D467A-5D22-6543-8DAB-58DD8490F3E6}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{3B8C4C0C-52DB-554C-AA88-B01BCB20F60A}" name="% labor force employed"/>
+    <tableColumn id="3" xr3:uid="{C3A854C7-1BD3-9244-8830-3DEA581E9CC7}" name="Capital stock ($ mill.)"/>
+    <tableColumn id="4" xr3:uid="{6C88D9EC-270F-9B47-8392-831DC258F9D3}" name="Col. I x Col. 2"/>
+    <tableColumn id="5" xr3:uid="{05734CAD-E11C-CC41-9C56-1CE8C691907C}" name="Share of property in income"/>
+    <tableColumn id="6" xr3:uid="{F00F3486-F874-B54D-A719-198DD49A233A}" name="Priv. nonfarm capital per manhour ($)"/>
+    <tableColumn id="7" xr3:uid="{47969541-3189-5C40-90D5-F5672C72138A}" name="Employed capital per manhour ($)" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{EE7108E5-FED2-C146-B7F2-A3561607BD0C}" name="△A/A"/>
+    <tableColumn id="9" xr3:uid="{A1E55740-4671-084C-B99D-222B04CB0D9E}" name="A(t)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -450,21 +475,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC49D43C-9EA2-E341-B219-09E911C625BA}">
   <dimension ref="A2:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="131" zoomScaleNormal="217" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="217" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="25.83203125" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" customWidth="1"/>
+    <col min="7" max="7" width="30.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -1707,8 +1735,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="C3:I3" numberStoredAsText="1"/>
-  </ignoredErrors>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>